--- a/rd/要件定義書.xlsx
+++ b/rd/要件定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>ユーザー名</t>
   </si>
@@ -92,6 +92,9 @@
     <t>山本</t>
   </si>
   <si>
+    <t>業務要件（ユースケース）編集</t>
+  </si>
+  <si>
     <t>会計概念の学習コンテンツが閲覧できる学習システム</t>
   </si>
   <si>
@@ -104,13 +107,13 @@
     <t>１－2） ユースケース</t>
   </si>
   <si>
-    <t>●新規アカウントを作成するとホーム画面にアクセスする。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　※既存ユーザーは、ユーザー名とパスワードでログインするとホーム画面にアクセスする</t>
-  </si>
-  <si>
-    <t>●ユーザーはホーム画面から選択した学習コンテンツを選択すると学習が開始できる。</t>
+    <t>●新規アカウントを作成すると学習コンテンツ画面にアクセスする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　※既存ユーザーは、ユーザー名とパスワードでログインすると学習コンテンツ画面にアクセスできる</t>
+  </si>
+  <si>
+    <t>●ユーザーはコンテンツ画面から選択した学習コンテンツを選択すると学習が開始できる。</t>
   </si>
   <si>
     <t>●学習した内容をお気に入りとしてマークを行う。</t>
@@ -396,6 +399,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="22.0"/>
       <color theme="1"/>
@@ -412,10 +419,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -576,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -692,6 +695,24 @@
     <xf borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -699,19 +720,13 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -720,13 +735,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1427,23 +1442,33 @@
     </row>
     <row r="34">
       <c r="A34" s="3"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="50">
+        <v>45316.0</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="31"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="51" t="s">
+        <v>25</v>
+      </c>
       <c r="K34" s="14"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="31"/>
       <c r="O34" s="14"/>
       <c r="P34" s="52"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="Q34" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="S34" s="54"/>
       <c r="T34" s="31"/>
       <c r="U34" s="14"/>
@@ -1453,13 +1478,13 @@
     </row>
     <row r="35">
       <c r="A35" s="3"/>
-      <c r="B35" s="49"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="14"/>
       <c r="D35" s="31"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="50"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="15"/>
       <c r="J35" s="31"/>
       <c r="K35" s="14"/>
@@ -1468,8 +1493,8 @@
       <c r="N35" s="31"/>
       <c r="O35" s="14"/>
       <c r="P35" s="52"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
       <c r="S35" s="54"/>
       <c r="T35" s="31"/>
       <c r="U35" s="14"/>
@@ -1479,13 +1504,13 @@
     </row>
     <row r="36">
       <c r="A36" s="3"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="14"/>
       <c r="D36" s="31"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="50"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="15"/>
       <c r="J36" s="31"/>
       <c r="K36" s="14"/>
@@ -1494,8 +1519,8 @@
       <c r="N36" s="31"/>
       <c r="O36" s="14"/>
       <c r="P36" s="52"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
       <c r="S36" s="54"/>
       <c r="T36" s="31"/>
       <c r="U36" s="14"/>
@@ -1505,13 +1530,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3"/>
-      <c r="B37" s="49"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="14"/>
       <c r="D37" s="31"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="15"/>
       <c r="J37" s="31"/>
       <c r="K37" s="14"/>
@@ -1520,8 +1545,8 @@
       <c r="N37" s="31"/>
       <c r="O37" s="14"/>
       <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
       <c r="S37" s="54"/>
       <c r="T37" s="31"/>
       <c r="U37" s="14"/>
@@ -1531,13 +1556,13 @@
     </row>
     <row r="38">
       <c r="A38" s="3"/>
-      <c r="B38" s="49"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="14"/>
       <c r="D38" s="31"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="50"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="15"/>
       <c r="J38" s="31"/>
       <c r="K38" s="14"/>
@@ -1546,8 +1571,8 @@
       <c r="N38" s="31"/>
       <c r="O38" s="14"/>
       <c r="P38" s="52"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
       <c r="S38" s="54"/>
       <c r="T38" s="31"/>
       <c r="U38" s="14"/>
@@ -1557,13 +1582,13 @@
     </row>
     <row r="39">
       <c r="A39" s="3"/>
-      <c r="B39" s="49"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="14"/>
       <c r="D39" s="31"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="50"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="15"/>
       <c r="J39" s="31"/>
       <c r="K39" s="14"/>
@@ -1572,8 +1597,8 @@
       <c r="N39" s="31"/>
       <c r="O39" s="14"/>
       <c r="P39" s="52"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
       <c r="S39" s="54"/>
       <c r="T39" s="31"/>
       <c r="U39" s="14"/>
@@ -1583,13 +1608,13 @@
     </row>
     <row r="40">
       <c r="A40" s="3"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="14"/>
       <c r="D40" s="31"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="51"/>
+      <c r="H40" s="57"/>
       <c r="I40" s="15"/>
       <c r="J40" s="31"/>
       <c r="K40" s="14"/>
@@ -1598,8 +1623,8 @@
       <c r="N40" s="31"/>
       <c r="O40" s="14"/>
       <c r="P40" s="52"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
       <c r="S40" s="54"/>
       <c r="T40" s="31"/>
       <c r="U40" s="14"/>
@@ -1609,13 +1634,13 @@
     </row>
     <row r="41">
       <c r="A41" s="3"/>
-      <c r="B41" s="49"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="14"/>
       <c r="D41" s="31"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="50"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="57"/>
       <c r="I41" s="15"/>
       <c r="J41" s="31"/>
       <c r="K41" s="14"/>
@@ -1624,8 +1649,8 @@
       <c r="N41" s="31"/>
       <c r="O41" s="14"/>
       <c r="P41" s="52"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
       <c r="S41" s="54"/>
       <c r="T41" s="31"/>
       <c r="U41" s="14"/>
@@ -1635,13 +1660,13 @@
     </row>
     <row r="42">
       <c r="A42" s="3"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="14"/>
       <c r="D42" s="31"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="50"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="51"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="15"/>
       <c r="J42" s="31"/>
       <c r="K42" s="14"/>
@@ -1650,8 +1675,8 @@
       <c r="N42" s="31"/>
       <c r="O42" s="14"/>
       <c r="P42" s="52"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
       <c r="S42" s="54"/>
       <c r="T42" s="31"/>
       <c r="U42" s="14"/>
@@ -1661,13 +1686,13 @@
     </row>
     <row r="43">
       <c r="A43" s="3"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="14"/>
       <c r="D43" s="31"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="50"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="51"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="15"/>
       <c r="J43" s="31"/>
       <c r="K43" s="14"/>
@@ -1676,8 +1701,8 @@
       <c r="N43" s="31"/>
       <c r="O43" s="14"/>
       <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
       <c r="S43" s="54"/>
       <c r="T43" s="31"/>
       <c r="U43" s="14"/>
@@ -1687,13 +1712,13 @@
     </row>
     <row r="44">
       <c r="A44" s="3"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="14"/>
       <c r="D44" s="31"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="50"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="51"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="15"/>
       <c r="J44" s="31"/>
       <c r="K44" s="14"/>
@@ -1702,8 +1727,8 @@
       <c r="N44" s="31"/>
       <c r="O44" s="14"/>
       <c r="P44" s="52"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="54"/>
       <c r="T44" s="31"/>
       <c r="U44" s="14"/>
@@ -1713,13 +1738,13 @@
     </row>
     <row r="45">
       <c r="A45" s="3"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="14"/>
       <c r="D45" s="31"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="50"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="51"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="15"/>
       <c r="J45" s="31"/>
       <c r="K45" s="14"/>
@@ -1728,8 +1753,8 @@
       <c r="N45" s="31"/>
       <c r="O45" s="14"/>
       <c r="P45" s="52"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
       <c r="S45" s="54"/>
       <c r="T45" s="31"/>
       <c r="U45" s="14"/>
@@ -1739,13 +1764,13 @@
     </row>
     <row r="46">
       <c r="A46" s="3"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="14"/>
       <c r="D46" s="31"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="50"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="51"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="15"/>
       <c r="J46" s="31"/>
       <c r="K46" s="14"/>
@@ -1754,8 +1779,8 @@
       <c r="N46" s="31"/>
       <c r="O46" s="14"/>
       <c r="P46" s="52"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="54"/>
       <c r="T46" s="31"/>
       <c r="U46" s="14"/>
@@ -1765,13 +1790,13 @@
     </row>
     <row r="47">
       <c r="A47" s="3"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="14"/>
       <c r="D47" s="31"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="50"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="51"/>
+      <c r="H47" s="57"/>
       <c r="I47" s="15"/>
       <c r="J47" s="31"/>
       <c r="K47" s="14"/>
@@ -1780,8 +1805,8 @@
       <c r="N47" s="31"/>
       <c r="O47" s="14"/>
       <c r="P47" s="52"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58"/>
       <c r="S47" s="54"/>
       <c r="T47" s="31"/>
       <c r="U47" s="14"/>
@@ -1791,13 +1816,13 @@
     </row>
     <row r="48">
       <c r="A48" s="3"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="14"/>
       <c r="D48" s="31"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="50"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="51"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="15"/>
       <c r="J48" s="31"/>
       <c r="K48" s="14"/>
@@ -1805,9 +1830,9 @@
       <c r="M48" s="14"/>
       <c r="N48" s="31"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
       <c r="S48" s="54"/>
       <c r="T48" s="31"/>
       <c r="U48" s="14"/>
@@ -1817,13 +1842,13 @@
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="B49" s="49"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="14"/>
       <c r="D49" s="31"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="50"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="15"/>
       <c r="J49" s="31"/>
       <c r="K49" s="14"/>
@@ -1832,8 +1857,8 @@
       <c r="N49" s="31"/>
       <c r="O49" s="14"/>
       <c r="P49" s="52"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="54"/>
       <c r="T49" s="31"/>
       <c r="U49" s="14"/>
@@ -1842,7 +1867,7 @@
       <c r="X49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="253">
+  <mergeCells count="250">
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
@@ -1947,7 +1972,6 @@
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="W33:X33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="L35:M35"/>
@@ -2012,6 +2036,8 @@
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="W35:X35"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:M34"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
@@ -2051,11 +2077,7 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
@@ -2120,15 +2142,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="3">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2138,65 +2160,65 @@
       </c>
     </row>
     <row r="7">
-      <c r="F7" s="60" t="s">
-        <v>25</v>
+      <c r="F7" s="64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="27"/>
     </row>
     <row r="9">
-      <c r="F9" s="60" t="s">
-        <v>26</v>
+      <c r="F9" s="64" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="60" t="s">
-        <v>27</v>
+      <c r="F10" s="64" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="61"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="14">
       <c r="E14" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="F16" s="60" t="s">
-        <v>29</v>
+      <c r="F16" s="64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="F17" s="60" t="s">
-        <v>30</v>
+      <c r="F17" s="64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" s="60" t="s">
-        <v>31</v>
+      <c r="F19" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" s="60"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21">
-      <c r="F21" s="60" t="s">
-        <v>32</v>
+      <c r="F21" s="64" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
-      <c r="F22" s="60" t="s">
-        <v>33</v>
+      <c r="F22" s="64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
-      <c r="F23" s="60"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24">
-      <c r="F24" s="60" t="s">
-        <v>34</v>
+      <c r="F24" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2216,15 +2238,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="3">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2235,39 +2257,39 @@
       <c r="E5" s="24"/>
     </row>
     <row r="7">
-      <c r="E7" s="60" t="s">
-        <v>35</v>
+      <c r="E7" s="64" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="E8" s="60" t="s">
-        <v>36</v>
+      <c r="E8" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="27"/>
     </row>
     <row r="11">
       <c r="D11" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="62" t="s">
-        <v>38</v>
+      <c r="E13" s="66" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="57"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16">
-      <c r="D16" s="57"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="57"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2289,15 +2311,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="3">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2307,13 +2329,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="F7" s="60" t="s">
-        <v>39</v>
+      <c r="F7" s="64" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="F8" s="60" t="s">
-        <v>40</v>
+      <c r="F8" s="64" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -2321,28 +2343,28 @@
     </row>
     <row r="10">
       <c r="F10" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="61"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12">
       <c r="F12" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="61" t="s">
-        <v>43</v>
+      <c r="F13" s="65" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" s="61"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15">
       <c r="E15" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -2350,28 +2372,28 @@
     </row>
     <row r="17">
       <c r="E17" s="24"/>
-      <c r="F17" s="60" t="s">
-        <v>45</v>
+      <c r="F17" s="64" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -2417,8 +2439,8 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="B1" s="66" t="s">
-        <v>50</v>
+      <c r="B1" s="70" t="s">
+        <v>51</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2460,15 +2482,15 @@
       <c r="AR1" s="18"/>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="69"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -2488,12 +2510,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="70" t="s">
-        <v>51</v>
+      <c r="AA2" s="74" t="s">
+        <v>52</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="71" t="s">
-        <v>52</v>
+      <c r="AC2" s="75" t="s">
+        <v>53</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AI2" s="18"/>
@@ -2508,20 +2530,20 @@
       <c r="AR2" s="18"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="73"/>
-      <c r="AA3" s="74" t="s">
-        <v>53</v>
+      <c r="G3" s="77"/>
+      <c r="AA3" s="78" t="s">
+        <v>54</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="74" t="s">
+      <c r="AC3" s="78" t="s">
         <v>24</v>
       </c>
       <c r="AD3" s="12"/>
@@ -2537,30 +2559,30 @@
       <c r="AR3" s="18"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="75" t="s">
-        <v>54</v>
+      <c r="A4" s="71"/>
+      <c r="B4" s="79" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="76" t="s">
-        <v>55</v>
+      <c r="G4" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="76" t="s">
-        <v>56</v>
+      <c r="K4" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="76" t="s">
-        <v>57</v>
+      <c r="Q4" s="80" t="s">
+        <v>58</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -2587,32 +2609,32 @@
       <c r="AR4" s="18"/>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="77">
+      <c r="A5" s="81">
         <v>1.0</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>58</v>
+      <c r="B5" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="78" t="s">
-        <v>59</v>
+      <c r="G5" s="82" t="s">
+        <v>60</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="72" t="s">
-        <v>60</v>
+      <c r="K5" s="76" t="s">
+        <v>61</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="79" t="s">
-        <v>61</v>
+      <c r="Q5" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -2639,32 +2661,32 @@
       <c r="AR5" s="18"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="77">
+      <c r="A6" s="81">
         <v>2.0</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>62</v>
+      <c r="B6" s="84" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="78" t="s">
-        <v>63</v>
+      <c r="G6" s="82" t="s">
+        <v>64</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="72" t="s">
-        <v>64</v>
+      <c r="K6" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="79" t="s">
-        <v>65</v>
+      <c r="Q6" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -2691,32 +2713,32 @@
       <c r="AR6" s="18"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="77">
+      <c r="A7" s="81">
         <v>3.0</v>
       </c>
-      <c r="B7" s="81" t="s">
-        <v>66</v>
+      <c r="B7" s="85" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="78" t="s">
-        <v>63</v>
+      <c r="G7" s="82" t="s">
+        <v>64</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="72" t="s">
-        <v>67</v>
+      <c r="K7" s="76" t="s">
+        <v>68</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="82" t="s">
-        <v>68</v>
+      <c r="Q7" s="86" t="s">
+        <v>69</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AI7" s="18"/>
@@ -2731,32 +2753,32 @@
       <c r="AR7" s="18"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="77">
+      <c r="A8" s="81">
         <v>4.0</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>69</v>
+      <c r="B8" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="78" t="s">
-        <v>63</v>
+      <c r="G8" s="82" t="s">
+        <v>64</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="72" t="s">
-        <v>70</v>
+      <c r="K8" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="79" t="s">
-        <v>71</v>
+      <c r="Q8" s="83" t="s">
+        <v>72</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -2783,32 +2805,32 @@
       <c r="AR8" s="18"/>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="77">
+      <c r="A9" s="81">
         <v>5.0</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>72</v>
+      <c r="B9" s="87" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="84" t="s">
-        <v>59</v>
+      <c r="G9" s="88" t="s">
+        <v>60</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="85" t="s">
-        <v>73</v>
+      <c r="K9" s="89" t="s">
+        <v>74</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="86" t="s">
-        <v>74</v>
+      <c r="Q9" s="90" t="s">
+        <v>75</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -2835,30 +2857,30 @@
       <c r="AR9" s="18"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="77">
+      <c r="A10" s="81">
         <v>6.0</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="87" t="s">
-        <v>59</v>
+      <c r="G10" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="88" t="s">
-        <v>75</v>
+      <c r="K10" s="92" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="89" t="s">
-        <v>76</v>
+      <c r="Q10" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -2885,32 +2907,32 @@
       <c r="AR10" s="18"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="77">
+      <c r="A11" s="81">
         <v>7.0</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>77</v>
+      <c r="B11" s="94" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="91" t="s">
-        <v>59</v>
+      <c r="G11" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="92" t="s">
-        <v>78</v>
+      <c r="K11" s="96" t="s">
+        <v>79</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="93" t="s">
-        <v>79</v>
+      <c r="Q11" s="97" t="s">
+        <v>80</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -2937,32 +2959,32 @@
       <c r="AR11" s="18"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="77">
+      <c r="A12" s="81">
         <v>8.0</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>80</v>
+      <c r="B12" s="98" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="95" t="s">
-        <v>59</v>
+      <c r="G12" s="99" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="86" t="s">
-        <v>81</v>
+      <c r="K12" s="90" t="s">
+        <v>82</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="86" t="s">
-        <v>82</v>
+      <c r="Q12" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2989,25 +3011,25 @@
       <c r="AR12" s="18"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="77">
+      <c r="A13" s="81">
         <v>9.0</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="91"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="96"/>
+      <c r="Q13" s="100"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -3023,25 +3045,25 @@
       <c r="AD13" s="15"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="77">
+      <c r="A14" s="81">
         <v>10.0</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="91"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="92"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="92"/>
+      <c r="Q14" s="96"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -3057,25 +3079,25 @@
       <c r="AD14" s="15"/>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="77">
+      <c r="A15" s="81">
         <v>11.0</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="97"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="97"/>
+      <c r="K15" s="101"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="97"/>
+      <c r="Q15" s="101"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -3091,25 +3113,25 @@
       <c r="AD15" s="15"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="77">
+      <c r="A16" s="81">
         <v>12.0</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="97"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="97"/>
+      <c r="K16" s="101"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="97"/>
+      <c r="Q16" s="101"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
@@ -3125,25 +3147,25 @@
       <c r="AD16" s="15"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="77">
+      <c r="A17" s="81">
         <v>13.0</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="97"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="97"/>
+      <c r="K17" s="101"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="97"/>
+      <c r="Q17" s="101"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>

--- a/rd/要件定義書.xlsx
+++ b/rd/要件定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>ユーザー名</t>
   </si>
@@ -47,6 +47,9 @@
     <t>１ー２） ユースケース</t>
   </si>
   <si>
+    <t>１ー３）開発環境</t>
+  </si>
+  <si>
     <t>機能要件</t>
   </si>
   <si>
@@ -95,34 +98,67 @@
     <t>業務要件（ユースケース）編集</t>
   </si>
   <si>
-    <t>会計概念の学習コンテンツが閲覧できる学習システム</t>
-  </si>
-  <si>
-    <t>利用者はログインして学習コンテンツを選択することで、学習ができます。</t>
-  </si>
-  <si>
-    <t>また、柔軟な学習体験を享受し、効果的に会計学習を進めることができます。</t>
+    <t>業務要件　編集</t>
+  </si>
+  <si>
+    <t>▼会計概念が学べる学習システム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　会計の知識がシンプルに解説されたテキスト形式で学習できる</t>
+  </si>
+  <si>
+    <t>▼収録内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　・インボイスとは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　・簿記</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　・勘定科目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　・総勘定元帳　　etc...</t>
+  </si>
+  <si>
+    <t>▼お気に入り登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　学習した内容をお気に入り登録して復習することに約立てる</t>
   </si>
   <si>
     <t>１－2） ユースケース</t>
   </si>
   <si>
-    <t>●新規アカウントを作成すると学習コンテンツ画面にアクセスする。</t>
+    <t>●新規アカウントを作成すると学習コンテンツ画面にアクセスできる。</t>
   </si>
   <si>
     <t xml:space="preserve">　※既存ユーザーは、ユーザー名とパスワードでログインすると学習コンテンツ画面にアクセスできる</t>
   </si>
   <si>
-    <t>●ユーザーはコンテンツ画面から選択した学習コンテンツを選択すると学習が開始できる。</t>
-  </si>
-  <si>
-    <t>●学習した内容をお気に入りとしてマークを行う。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　※マークした情報は、お気に入り一覧より確認し、削除も行える</t>
-  </si>
-  <si>
-    <t>●アプリケーションを閉じる前にログアウトを行う。</t>
+    <t>●ユーザーはコンテンツ画面から収録内容（インボイスとは等）を選択すると解説画面が表示され学習できる。</t>
+  </si>
+  <si>
+    <t>●学習した内容をお気に入りとしてマークできる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　※マークした情報は、お気に入り一覧より確認できる</t>
+  </si>
+  <si>
+    <t>●アプリケーションを閉じる前にログアウトを行える。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> １－３）開発環境</t>
+  </si>
+  <si>
+    <t>・フロント：HTML、CSS、JavaScript</t>
+  </si>
+  <si>
+    <t>・バック：Java</t>
+  </si>
+  <si>
+    <t>・DB：MySQL</t>
   </si>
   <si>
     <t>webアプリケーションのみ</t>
@@ -234,7 +270,7 @@
     <t>学習コンテンツ</t>
   </si>
   <si>
-    <t>選択した学習コンテンツを選択すると学習が開始できる</t>
+    <t>選択した学習コンテンツを選択すると解説画面が表示され学習ができる</t>
   </si>
   <si>
     <t>お気に入り</t>
@@ -295,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -419,6 +455,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -741,37 +782,40 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -804,13 +848,13 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -819,7 +863,7 @@
     <xf borderId="4" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -831,7 +875,7 @@
     <xf borderId="9" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -840,14 +884,11 @@
     <xf borderId="10" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1275,18 +1316,18 @@
       <c r="X16" s="30"/>
     </row>
     <row r="17">
-      <c r="K17" s="28" t="s">
+      <c r="L17" s="29" t="s">
         <v>10</v>
       </c>
       <c r="X17" s="30"/>
     </row>
     <row r="18">
-      <c r="L18" s="29" t="s">
+      <c r="X18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X18" s="30"/>
-    </row>
-    <row r="19">
       <c r="X19" s="30"/>
     </row>
     <row r="20">
@@ -1299,7 +1340,7 @@
       <c r="X21" s="30"/>
     </row>
     <row r="22">
-      <c r="K22" s="28" t="s">
+      <c r="L22" s="29" t="s">
         <v>13</v>
       </c>
       <c r="X22" s="30"/>
@@ -1308,49 +1349,29 @@
       <c r="X23" s="30"/>
     </row>
     <row r="24">
-      <c r="L24" s="29" t="s">
+      <c r="K24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="27"/>
       <c r="X24" s="30"/>
     </row>
-    <row r="25" ht="18.0" customHeight="1">
-      <c r="M25" s="27"/>
+    <row r="25">
       <c r="X25" s="30"/>
     </row>
     <row r="26">
       <c r="L26" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="N26" s="27"/>
       <c r="X26" s="30"/>
     </row>
-    <row r="27">
-      <c r="L27" s="29"/>
+    <row r="27" ht="18.0" customHeight="1">
+      <c r="M27" s="27"/>
       <c r="X27" s="30"/>
     </row>
     <row r="28">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
+      <c r="L28" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="X28" s="30"/>
     </row>
     <row r="29">
@@ -1358,169 +1379,146 @@
       <c r="X29" s="30"/>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X30" s="8"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="30"/>
     </row>
     <row r="31">
-      <c r="W31" s="1"/>
-      <c r="X31" s="2"/>
+      <c r="L31" s="29"/>
+      <c r="X31" s="30"/>
     </row>
     <row r="32">
       <c r="A32" s="3"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="12"/>
+      <c r="X32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="43">
-        <v>45315.0</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="47"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="7"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="3"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="50">
-        <v>45316.0</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="54"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="7"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="12"/>
     </row>
     <row r="35">
       <c r="A35" s="3"/>
-      <c r="B35" s="55"/>
+      <c r="B35" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="31"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="31"/>
+      <c r="F35" s="43">
+        <v>45315.0</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="K35" s="14"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="14"/>
       <c r="N35" s="31"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="54"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="47"/>
       <c r="T35" s="31"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="54"/>
+      <c r="V35" s="48"/>
       <c r="W35" s="6"/>
       <c r="X35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="3"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="56"/>
+      <c r="F36" s="50">
+        <v>45316.0</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="31"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="K36" s="14"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="31"/>
       <c r="O36" s="14"/>
       <c r="P36" s="52"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
+      <c r="Q36" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="S36" s="54"/>
       <c r="T36" s="31"/>
       <c r="U36" s="14"/>
@@ -1530,23 +1528,33 @@
     </row>
     <row r="37">
       <c r="A37" s="3"/>
-      <c r="B37" s="55"/>
+      <c r="B37" s="51" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="31"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="50">
+        <v>45317.0</v>
+      </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="31"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="K37" s="14"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="14"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="31"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="14"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="S37" s="54"/>
       <c r="T37" s="31"/>
       <c r="U37" s="14"/>
@@ -1830,7 +1838,7 @@
       <c r="M48" s="14"/>
       <c r="N48" s="31"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="59"/>
+      <c r="P48" s="52"/>
       <c r="Q48" s="58"/>
       <c r="R48" s="58"/>
       <c r="S48" s="54"/>
@@ -1866,8 +1874,88 @@
       <c r="W49" s="6"/>
       <c r="X49" s="7"/>
     </row>
+    <row r="50">
+      <c r="A50" s="3"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="250">
+  <mergeCells count="248">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
@@ -1882,44 +1970,16 @@
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
     <mergeCell ref="T45:U45"/>
     <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
     <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
     <mergeCell ref="W47:X47"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="W49:X49"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
@@ -1953,52 +2013,129 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
     <mergeCell ref="W33:X33"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T34:U34"/>
-    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="W34:X34"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="T35:U35"/>
-    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="N37:O37"/>
     <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="L17:O17"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -2021,103 +2158,24 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:P37"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2154,71 +2212,131 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="I4" s="27"/>
+    </row>
     <row r="5">
       <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="J6" s="27"/>
+    </row>
     <row r="7">
       <c r="F7" s="64" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K7" s="65"/>
     </row>
     <row r="8">
-      <c r="F8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
-      <c r="F9" s="64" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9" s="64"/>
     </row>
     <row r="10">
       <c r="F10" s="64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="65"/>
+      <c r="F11" s="66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14">
-      <c r="E14" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="F14" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="27"/>
     </row>
     <row r="16">
       <c r="F16" s="64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="F17" s="64" t="s">
-        <v>31</v>
-      </c>
+      <c r="F17" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="27"/>
     </row>
     <row r="19">
-      <c r="F19" s="64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" s="64"/>
+      <c r="E19" s="24" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21">
       <c r="F21" s="64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" s="64"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="24">
       <c r="F24" s="64" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="64"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2247,48 +2365,48 @@
     </row>
     <row r="3">
       <c r="C3" s="63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="24"/>
     </row>
     <row r="7">
       <c r="E7" s="64" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="64" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F8" s="27"/>
     </row>
     <row r="11">
       <c r="D11" s="24" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="66" t="s">
-        <v>39</v>
+      <c r="E13" s="67" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="61"/>
-      <c r="E15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
     </row>
     <row r="16">
       <c r="D16" s="61"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="61"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="61"/>
     </row>
   </sheetData>
@@ -2320,22 +2438,22 @@
     </row>
     <row r="3">
       <c r="C3" s="63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="64" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="64" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -2343,28 +2461,28 @@
     </row>
     <row r="10">
       <c r="F10" s="27" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12">
       <c r="F12" s="27" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="65" t="s">
-        <v>44</v>
+      <c r="F13" s="66" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" s="65"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15">
       <c r="E15" s="24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -2373,27 +2491,27 @@
     <row r="17">
       <c r="E17" s="24"/>
       <c r="F17" s="64" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="27" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="27" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -2439,8 +2557,8 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="B1" s="70" t="s">
-        <v>51</v>
+      <c r="B1" s="71" t="s">
+        <v>63</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2482,15 +2600,15 @@
       <c r="AR1" s="18"/>
     </row>
     <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="73"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -2510,12 +2628,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="74" t="s">
-        <v>52</v>
+      <c r="AA2" s="75" t="s">
+        <v>64</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="75" t="s">
-        <v>53</v>
+      <c r="AC2" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AI2" s="18"/>
@@ -2530,21 +2648,21 @@
       <c r="AR2" s="18"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="77"/>
-      <c r="AA3" s="78" t="s">
-        <v>54</v>
+      <c r="G3" s="78"/>
+      <c r="AA3" s="79" t="s">
+        <v>66</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="78" t="s">
-        <v>24</v>
+      <c r="AC3" s="79" t="s">
+        <v>25</v>
       </c>
       <c r="AD3" s="12"/>
       <c r="AI3" s="18"/>
@@ -2559,30 +2677,30 @@
       <c r="AR3" s="18"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="79" t="s">
-        <v>55</v>
+      <c r="A4" s="72"/>
+      <c r="B4" s="80" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="80" t="s">
-        <v>56</v>
+      <c r="G4" s="81" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="80" t="s">
-        <v>57</v>
+      <c r="K4" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="80" t="s">
-        <v>58</v>
+      <c r="Q4" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -2609,32 +2727,32 @@
       <c r="AR4" s="18"/>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1.0</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>59</v>
+      <c r="B5" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="82" t="s">
-        <v>60</v>
+      <c r="G5" s="83" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="76" t="s">
-        <v>61</v>
+      <c r="K5" s="77" t="s">
+        <v>73</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="83" t="s">
-        <v>62</v>
+      <c r="Q5" s="84" t="s">
+        <v>74</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -2661,32 +2779,32 @@
       <c r="AR5" s="18"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="81">
+      <c r="A6" s="82">
         <v>2.0</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>63</v>
+      <c r="B6" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="82" t="s">
-        <v>64</v>
+      <c r="G6" s="83" t="s">
+        <v>76</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="76" t="s">
-        <v>65</v>
+      <c r="K6" s="77" t="s">
+        <v>77</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="83" t="s">
-        <v>66</v>
+      <c r="Q6" s="84" t="s">
+        <v>78</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -2713,32 +2831,32 @@
       <c r="AR6" s="18"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>3.0</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>67</v>
+      <c r="B7" s="86" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="82" t="s">
-        <v>64</v>
+      <c r="G7" s="83" t="s">
+        <v>76</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="76" t="s">
-        <v>68</v>
+      <c r="K7" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="86" t="s">
-        <v>69</v>
+      <c r="Q7" s="87" t="s">
+        <v>81</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AI7" s="18"/>
@@ -2753,32 +2871,32 @@
       <c r="AR7" s="18"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="81">
+      <c r="A8" s="82">
         <v>4.0</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>70</v>
+      <c r="B8" s="77" t="s">
+        <v>82</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="82" t="s">
-        <v>64</v>
+      <c r="G8" s="83" t="s">
+        <v>76</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="76" t="s">
-        <v>71</v>
+      <c r="K8" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="83" t="s">
-        <v>72</v>
+      <c r="Q8" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -2805,32 +2923,32 @@
       <c r="AR8" s="18"/>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>5.0</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>73</v>
+      <c r="B9" s="88" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="88" t="s">
-        <v>60</v>
+      <c r="G9" s="89" t="s">
+        <v>72</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="89" t="s">
-        <v>74</v>
+      <c r="K9" s="90" t="s">
+        <v>86</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="90" t="s">
-        <v>75</v>
+      <c r="Q9" s="91" t="s">
+        <v>87</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -2857,30 +2975,30 @@
       <c r="AR9" s="18"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="81">
+      <c r="A10" s="82">
         <v>6.0</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="91" t="s">
-        <v>60</v>
+      <c r="G10" s="92" t="s">
+        <v>72</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="92" t="s">
-        <v>76</v>
+      <c r="K10" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="93" t="s">
-        <v>77</v>
+      <c r="Q10" s="94" t="s">
+        <v>89</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -2907,32 +3025,32 @@
       <c r="AR10" s="18"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>7.0</v>
       </c>
-      <c r="B11" s="94" t="s">
-        <v>78</v>
+      <c r="B11" s="95" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="95" t="s">
-        <v>60</v>
+      <c r="G11" s="96" t="s">
+        <v>72</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="96" t="s">
-        <v>79</v>
+      <c r="K11" s="97" t="s">
+        <v>91</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="97" t="s">
-        <v>80</v>
+      <c r="Q11" s="98" t="s">
+        <v>92</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -2959,32 +3077,32 @@
       <c r="AR11" s="18"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="81">
+      <c r="A12" s="82">
         <v>8.0</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>81</v>
+      <c r="B12" s="99" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="99" t="s">
-        <v>60</v>
+      <c r="G12" s="100" t="s">
+        <v>72</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="90" t="s">
-        <v>82</v>
+      <c r="K12" s="91" t="s">
+        <v>94</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="90" t="s">
-        <v>83</v>
+      <c r="Q12" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -3011,59 +3129,59 @@
       <c r="AR12" s="18"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="81">
+      <c r="A13" s="82">
         <v>9.0</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="81">
+      <c r="A14" s="82">
         <v>10.0</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="95"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="96"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="96"/>
+      <c r="Q14" s="97"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -3079,7 +3197,7 @@
       <c r="AD14" s="15"/>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="81">
+      <c r="A15" s="82">
         <v>11.0</v>
       </c>
       <c r="B15" s="101"/>
@@ -3113,7 +3231,7 @@
       <c r="AD15" s="15"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="81">
+      <c r="A16" s="82">
         <v>12.0</v>
       </c>
       <c r="B16" s="101"/>
@@ -3147,7 +3265,7 @@
       <c r="AD16" s="15"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="81">
+      <c r="A17" s="82">
         <v>13.0</v>
       </c>
       <c r="B17" s="101"/>
@@ -3197,24 +3315,26 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:P8"/>
     <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AD11"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="Q10:AD10"/>
+    <mergeCell ref="Q11:AD11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:P13"/>
     <mergeCell ref="Q13:AD13"/>
-    <mergeCell ref="Q14:AD14"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="Q12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="Q14:AD14"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:J17"/>
@@ -3264,13 +3384,11 @@
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="Q9:AD9"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:P13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="K14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
